--- a/Raw data/Rostrum removed.xlsx
+++ b/Raw data/Rostrum removed.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellen Coombs\Desktop\Github files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C0A45-B83C-4F5E-9EC0-BBD105723E12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8F036-3769-47BD-9E4E-CE2B522336CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{6A93CD1D-D4A6-4E0B-8AAF-A1234FF9277D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rostrum removed" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rostrum removed'!$A$3:$BA$167</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1052,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4AAD6-261B-47DB-BAF6-B414E146B5AB}">
   <dimension ref="A1:BA332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Raw data/Rostrum removed.xlsx
+++ b/Raw data/Rostrum removed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellen Coombs\Desktop\Github files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Model checks\Github files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8F036-3769-47BD-9E4E-CE2B522336CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18418F2E-0680-4A19-86B7-28188C39BBA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{6A93CD1D-D4A6-4E0B-8AAF-A1234FF9277D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="222">
   <si>
     <t>species</t>
   </si>
@@ -703,6 +703,9 @@
   <si>
     <t>Odobenocetops peruvianus SMNK PAL 2491</t>
   </si>
+  <si>
+    <t>Mesoplodon traversii (juvenile) NMNZ TMP012996</t>
+  </si>
 </sst>
 </file>
 
@@ -1055,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4AAD6-261B-47DB-BAF6-B414E146B5AB}">
   <dimension ref="A1:BA332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16205,7 +16208,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="C97" t="s">
         <v>47</v>
